--- a/docs/ceshi.xlsx
+++ b/docs/ceshi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\JavaScholar\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6D03E-AC80-4CA0-AACB-F4B77D97299C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62867CF-66F6-48C3-928B-88E6ED280362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
   <sheets>
     <sheet name="知识进度" sheetId="1" r:id="rId1"/>
     <sheet name="秋招公司准备" sheetId="3" r:id="rId2"/>
+    <sheet name="18周（4.27-5.3）" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">秋招公司准备!$A$1:$F$319</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="549">
   <si>
     <t>链表问题对于笔试和面试阶段的解题方法论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1925,12 +1926,58 @@
     <t>春招面经</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:30-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,6 +2022,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1984,12 +2038,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1998,7 +2067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2018,6 +2087,12 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2357,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117F014-3980-4D9B-B644-5A790D3BF703}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4480,7 @@
   <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I358"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6249,4 +6324,99 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE1240-3AEE-4617-9F0A-0CB153218D99}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="9" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="202.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="202.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="202.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/ceshi.xlsx
+++ b/docs/ceshi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\JavaScholar\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E5CFB6-5688-45D4-9E37-149C78392FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930D110-4BDD-4136-85D6-8ACDFC469185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="3" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
   <sheets>
     <sheet name="知识进度" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="面经进程" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">面经!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">面经!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">秋招公司准备!$B$1:$N$357</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1764">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5868,6 +5868,25 @@
   </si>
   <si>
     <t>互联网企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/206160?type=post&amp;order=time&amp;pos=&amp;page=1&amp;channel=&amp;source_id=1_post&amp;subType=1</t>
+  </si>
+  <si>
+    <t>书本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6511,7 +6530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6781,6 +6800,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7991,7 +8013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6F434E-5BCD-42D4-B556-3D8800E94DC0}">
   <dimension ref="A1:O635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+    <sheetView topLeftCell="A543" workbookViewId="0">
       <selection activeCell="D628" sqref="D628"/>
     </sheetView>
   </sheetViews>
@@ -15067,10 +15089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392B680-2DA2-47B8-A070-856EF7B269CF}">
-  <dimension ref="A1:M407"/>
+  <dimension ref="A1:P407"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -15083,19 +15105,19 @@
     <col min="6" max="6" width="14.88671875" style="8" customWidth="1"/>
     <col min="7" max="7" width="49.5546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="71.5546875" style="8" customWidth="1"/>
-    <col min="9" max="12" width="13.77734375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="8"/>
+    <col min="9" max="15" width="13.77734375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="86" t="s">
         <v>821</v>
       </c>
@@ -15121,10 +15143,16 @@
         <v>1666</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>1761</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1759</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>7</v>
       </c>
@@ -15149,15 +15177,28 @@
       <c r="H2" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="8" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1763</v>
+      </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="8">
+      <c r="M2" s="8" t="s">
+        <v>1762</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>1760</v>
+      </c>
+      <c r="O2" s="84"/>
+      <c r="P2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>8</v>
       </c>
@@ -15186,11 +15227,14 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="8">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="67.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="67.2" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>1</v>
       </c>
@@ -15216,7 +15260,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="67.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="67.2" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>2</v>
       </c>
@@ -15245,11 +15289,14 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="8">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -15260,19 +15307,22 @@
         <v>1640</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="104" t="s">
         <v>1699</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>4</v>
       </c>
@@ -15298,7 +15348,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -15324,7 +15374,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -15348,7 +15398,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -15372,7 +15422,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -15396,7 +15446,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -15420,7 +15470,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="67.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="67.2" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -15444,7 +15494,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="134.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="134.4" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -15468,7 +15518,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="218.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="218.4" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -15492,7 +15542,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -15622,17 +15672,17 @@
       <c r="A23" s="32"/>
       <c r="B23" s="33"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="99">
+      <c r="D23" s="103"/>
+      <c r="E23" s="100">
         <v>116</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="94" t="s">
         <v>1698</v>
       </c>
-      <c r="H23" s="96" t="s">
+      <c r="H23" s="97" t="s">
         <v>822</v>
       </c>
     </row>
@@ -15640,25 +15690,25 @@
       <c r="A24" s="32"/>
       <c r="B24" s="33"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="100"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="97"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="98"/>
     </row>
     <row r="25" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="101"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="98"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="99"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
@@ -16158,32 +16208,32 @@
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="32">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="32">
         <v>36</v>
       </c>
-      <c r="M86" s="8">
+      <c r="P86" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="32">
         <v>37</v>
       </c>
@@ -16191,11 +16241,14 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
-      <c r="M87" s="8">
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="32">
         <v>3</v>
       </c>
@@ -16203,35 +16256,38 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="8">
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="32">
         <v>5</v>
       </c>
-      <c r="M89" s="8">
+      <c r="P89" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="32">
         <v>6</v>
       </c>
-      <c r="M90" s="8">
+      <c r="P90" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="32">
         <v>11</v>
       </c>
-      <c r="M91" s="8">
+      <c r="P91" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="30" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="30" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="56">
         <v>12</v>
       </c>
@@ -16242,38 +16298,41 @@
       <c r="J92" s="31"/>
       <c r="K92" s="31"/>
       <c r="L92" s="31"/>
-      <c r="M92" s="31">
+      <c r="M92" s="90"/>
+      <c r="N92" s="90"/>
+      <c r="O92" s="90"/>
+      <c r="P92" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="32">
         <v>14</v>
       </c>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
       <c r="H93" s="30"/>
-      <c r="M93" s="8">
+      <c r="P93" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="32">
         <v>15</v>
       </c>
-      <c r="M94" s="8">
+      <c r="P94" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="32">
         <v>16</v>
       </c>
-      <c r="M95" s="8">
+      <c r="P95" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="32">
         <v>17</v>
       </c>
@@ -16281,19 +16340,22 @@
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
-      <c r="M96" s="8">
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="32">
         <v>18</v>
       </c>
-      <c r="M97" s="8">
+      <c r="P97" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="32">
         <v>19</v>
       </c>
@@ -16301,19 +16363,22 @@
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
-      <c r="M98" s="8">
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="32">
         <v>20</v>
       </c>
-      <c r="M99" s="8">
+      <c r="P99" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>21</v>
       </c>
@@ -16321,35 +16386,38 @@
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
-      <c r="M100" s="8">
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="32">
         <v>22</v>
       </c>
-      <c r="M101" s="8">
+      <c r="P101" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="32">
         <v>23</v>
       </c>
-      <c r="M102" s="8">
+      <c r="P102" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="32">
         <v>24</v>
       </c>
-      <c r="M103" s="8">
+      <c r="P103" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="32">
         <v>25</v>
       </c>
@@ -16357,11 +16425,14 @@
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="8">
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="32">
         <v>26</v>
       </c>
@@ -16369,27 +16440,30 @@
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
-      <c r="M105" s="8">
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="32">
         <v>27</v>
       </c>
-      <c r="M106" s="8">
+      <c r="P106" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="32">
         <v>28</v>
       </c>
-      <c r="M107" s="8">
+      <c r="P107" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="32">
         <v>29</v>
       </c>
@@ -16397,11 +16471,14 @@
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
-      <c r="M108" s="8">
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="32">
         <v>30</v>
       </c>
@@ -16409,11 +16486,14 @@
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
-      <c r="M109" s="8">
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
         <v>31</v>
       </c>
@@ -16421,8 +16501,11 @@
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="32">
         <v>32</v>
       </c>
@@ -16430,8 +16513,11 @@
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="32">
         <v>33</v>
       </c>
@@ -16439,8 +16525,11 @@
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="32">
         <v>34</v>
       </c>
@@ -16448,8 +16537,11 @@
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="32">
         <v>35</v>
       </c>
@@ -16457,8 +16549,11 @@
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="32">
         <v>36</v>
       </c>
@@ -16466,303 +16561,306 @@
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="32">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="32">
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="32">
         <v>6</v>
       </c>
-      <c r="M120" s="8">
+      <c r="P120" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="32">
         <v>7</v>
       </c>
-      <c r="M121" s="8">
+      <c r="P121" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="32">
         <v>8</v>
       </c>
-      <c r="M122" s="8">
+      <c r="P122" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="32">
         <v>9</v>
       </c>
-      <c r="M123" s="8">
+      <c r="P123" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="32">
         <v>10</v>
       </c>
-      <c r="M124" s="8">
+      <c r="P124" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="32">
         <v>11</v>
       </c>
-      <c r="M125" s="8">
+      <c r="P125" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="32">
         <v>12</v>
       </c>
-      <c r="M126" s="8">
+      <c r="P126" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="32">
         <v>13</v>
       </c>
-      <c r="M127" s="8">
+      <c r="P127" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="32">
         <v>14</v>
       </c>
-      <c r="M128" s="8">
+      <c r="P128" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="32">
         <v>15</v>
       </c>
-      <c r="M129" s="8">
+      <c r="P129" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="32">
         <v>16</v>
       </c>
-      <c r="M130" s="8">
+      <c r="P130" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="32">
         <v>17</v>
       </c>
-      <c r="M131" s="8">
+      <c r="P131" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="32">
         <v>18</v>
       </c>
-      <c r="M132" s="8">
+      <c r="P132" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="32">
         <v>19</v>
       </c>
-      <c r="M133" s="8">
+      <c r="P133" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="32">
         <v>20</v>
       </c>
-      <c r="M134" s="8">
+      <c r="P134" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="32">
         <v>36</v>
       </c>
-      <c r="M135" s="8">
+      <c r="P135" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>37</v>
       </c>
-      <c r="M136" s="8">
+      <c r="P136" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="32">
         <v>38</v>
       </c>
-      <c r="M137" s="8">
+      <c r="P137" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
         <v>39</v>
       </c>
-      <c r="M138" s="8">
+      <c r="P138" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="32">
         <v>40</v>
       </c>
-      <c r="M139" s="8">
+      <c r="P139" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="32">
         <v>41</v>
       </c>
-      <c r="M140" s="8">
+      <c r="P140" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="32">
         <v>42</v>
       </c>
-      <c r="M141" s="8">
+      <c r="P141" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="32">
         <v>43</v>
       </c>
-      <c r="M142" s="8">
+      <c r="P142" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="32">
         <v>44</v>
       </c>
-      <c r="M143" s="8">
+      <c r="P143" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="32">
         <v>45</v>
       </c>
-      <c r="M144" s="8">
+      <c r="P144" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="32">
         <v>46</v>
       </c>
-      <c r="M145" s="8">
+      <c r="P145" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="32">
         <v>47</v>
       </c>
-      <c r="M146" s="8">
+      <c r="P146" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="32">
         <v>48</v>
       </c>
-      <c r="M147" s="8">
+      <c r="P147" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="32">
         <v>49</v>
       </c>
-      <c r="M148" s="8">
+      <c r="P148" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="32">
         <v>50</v>
       </c>
-      <c r="M149" s="8">
+      <c r="P149" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="32">
         <v>51</v>
       </c>
-      <c r="M150" s="8">
+      <c r="P150" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="32"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="32"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="32"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="32"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="32"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="32"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="32"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="32"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="32"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -16861,56 +16959,59 @@
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="32"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="32"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="32"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="32"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="32"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="32"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="32"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="32"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="32"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="32"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="32"/>
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
       <c r="K202" s="10"/>
       <c r="L202" s="10"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" s="10"/>
+      <c r="N202" s="10"/>
+      <c r="O202" s="10"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="32"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="32"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="32"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -17147,44 +17248,62 @@
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="32"/>
     </row>
-    <row r="401" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I401" s="19"/>
       <c r="J401" s="19"/>
       <c r="K401" s="19"/>
       <c r="L401" s="19"/>
-    </row>
-    <row r="402" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="M401" s="19"/>
+      <c r="N401" s="19"/>
+      <c r="O401" s="19"/>
+    </row>
+    <row r="402" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I402" s="19"/>
       <c r="J402" s="19"/>
       <c r="K402" s="19"/>
       <c r="L402" s="19"/>
-    </row>
-    <row r="403" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="M402" s="19"/>
+      <c r="N402" s="19"/>
+      <c r="O402" s="19"/>
+    </row>
+    <row r="403" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I403" s="19"/>
       <c r="J403" s="19"/>
       <c r="K403" s="19"/>
       <c r="L403" s="19"/>
-    </row>
-    <row r="404" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="M403" s="19"/>
+      <c r="N403" s="19"/>
+      <c r="O403" s="19"/>
+    </row>
+    <row r="404" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I404" s="19"/>
       <c r="J404" s="19"/>
       <c r="K404" s="19"/>
       <c r="L404" s="19"/>
-    </row>
-    <row r="406" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="M404" s="19"/>
+      <c r="N404" s="19"/>
+      <c r="O404" s="19"/>
+    </row>
+    <row r="406" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I406" s="19"/>
       <c r="J406" s="19"/>
       <c r="K406" s="19"/>
       <c r="L406" s="19"/>
-    </row>
-    <row r="407" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="M406" s="19"/>
+      <c r="N406" s="19"/>
+      <c r="O406" s="19"/>
+    </row>
+    <row r="407" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I407" s="19"/>
       <c r="J407" s="19"/>
       <c r="K407" s="19"/>
       <c r="L407" s="19"/>
+      <c r="M407" s="19"/>
+      <c r="N407" s="19"/>
+      <c r="O407" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{842DA1FA-9167-4573-A13D-4EEBE8D23D3B}">
+  <autoFilter ref="A1:P1" xr:uid="{842DA1FA-9167-4573-A13D-4EEBE8D23D3B}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
@@ -17194,7 +17313,7 @@
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E6:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -17207,9 +17326,11 @@
     <hyperlink ref="H11" r:id="rId7" location="%E6%89%A9%E5%AE%B9%E6%9C%BA%E5%88%B6%E6%A0%B8%E5%BF%83%E6%96%B9%E6%B3%95Node%3CK%2CV%3E%5B%5D%20resize()" xr:uid="{B5781CA2-6BF6-4BC0-B241-4ADA0E239C74}"/>
     <hyperlink ref="H18" r:id="rId8" xr:uid="{0D01DE28-A4A7-49A9-BE0C-59578E9C5D43}"/>
     <hyperlink ref="H27" r:id="rId9" xr:uid="{1C72C63E-5684-45A0-8FC5-AED48D97A848}"/>
+    <hyperlink ref="N2" r:id="rId10" xr:uid="{F996446D-0A13-4B42-A5A0-A81746D7D497}"/>
+    <hyperlink ref="J2" r:id="rId11" display="https://github.com/CyC2018/CS-Notes/blob/master/notes/Java %E5%9F%BA%E7%A1%80.md" xr:uid="{F9365521-DA9F-4AE2-B155-0503C7985435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -17218,7 +17339,7 @@
   <dimension ref="B2:H820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/docs/ceshi.xlsx
+++ b/docs/ceshi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\JavaScholar\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB76C7B4-F508-4638-8662-B7B2C2CC1460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74475D8F-3AD8-4467-BE42-868B3420D283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="5" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1784">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5969,6 +5969,18 @@
   <si>
     <t>ConcurrentHashMap对桶数组进行了分段，而HashMap并没有。&lt;br&gt;
 ConcurrentHashMap在每一个分段上都用锁进行了保护。HashMap没有锁机制。所以，前者线程安全的，后者不是线程安全的。&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6963,37 +6975,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7014,7 +7008,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15278,10 +15290,10 @@
       <c r="A1" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="108" t="s">
         <v>679</v>
       </c>
-      <c r="C1" s="117"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="85"/>
       <c r="E1" s="84" t="s">
         <v>812</v>
@@ -15489,11 +15501,11 @@
         <v>1615</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="116" t="s">
         <v>1651</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
@@ -15561,19 +15573,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="119">
         <v>6</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="118" t="s">
         <v>1614</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="124" t="s">
         <v>1617</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="123" t="s">
         <v>1726</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="121">
         <v>102</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -15584,15 +15596,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="113"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="11" t="s">
         <v>1737</v>
       </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
@@ -15890,7 +15902,7 @@
       <c r="D30" s="86" t="s">
         <v>1726</v>
       </c>
-      <c r="E30" s="119">
+      <c r="E30" s="113">
         <v>101</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -15909,11 +15921,11 @@
       <c r="D31" s="86" t="s">
         <v>1726</v>
       </c>
-      <c r="E31" s="120"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="G31" s="118"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
@@ -15924,11 +15936,11 @@
       <c r="D32" s="86" t="s">
         <v>1726</v>
       </c>
-      <c r="E32" s="121"/>
+      <c r="E32" s="115"/>
       <c r="F32" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="G32" s="111"/>
+      <c r="G32" s="112"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
@@ -17425,16 +17437,16 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="G30:G32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -17553,537 +17565,775 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE780C06-F2BE-49C5-9144-40CD27873B66}">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>1781</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="103" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C2" s="103">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="F2" s="103"/>
+      <c r="G2" s="103">
         <v>59</v>
       </c>
-      <c r="E2">
+      <c r="H2" s="103"/>
+      <c r="I2" s="103">
         <v>78</v>
       </c>
-      <c r="F2">
+      <c r="J2" s="103"/>
+      <c r="K2" s="103">
         <v>97</v>
       </c>
-      <c r="G2">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103">
         <v>116</v>
       </c>
-      <c r="H2" s="125">
+      <c r="N2" s="103"/>
+      <c r="O2" s="125">
         <v>135</v>
       </c>
-      <c r="I2">
+      <c r="P2" s="125"/>
+      <c r="Q2" s="103">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="R2" s="103"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="103">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="103"/>
+      <c r="C3" s="103">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="103"/>
+      <c r="E3" s="103">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="F3" s="103"/>
+      <c r="G3" s="103">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103">
         <v>79</v>
       </c>
-      <c r="F3">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103">
         <v>98</v>
       </c>
-      <c r="G3">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103">
         <v>117</v>
       </c>
-      <c r="H3" s="125">
+      <c r="N3" s="103"/>
+      <c r="O3" s="125">
         <v>136</v>
       </c>
-      <c r="I3">
+      <c r="P3" s="125"/>
+      <c r="Q3" s="103">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="R3" s="103"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="103">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103">
         <v>42</v>
       </c>
-      <c r="D4">
+      <c r="F4" s="103"/>
+      <c r="G4" s="103">
         <v>61</v>
       </c>
-      <c r="E4">
+      <c r="H4" s="103"/>
+      <c r="I4" s="103">
         <v>80</v>
       </c>
-      <c r="F4" s="125">
+      <c r="J4" s="103"/>
+      <c r="K4" s="125">
         <v>99</v>
       </c>
-      <c r="G4" s="125">
+      <c r="L4" s="125"/>
+      <c r="M4" s="125">
         <v>118</v>
       </c>
-      <c r="H4" s="125">
+      <c r="N4" s="125"/>
+      <c r="O4" s="125">
         <v>137</v>
       </c>
-      <c r="I4">
+      <c r="P4" s="125"/>
+      <c r="Q4" s="103">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="R4" s="103"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="103">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103">
         <v>43</v>
       </c>
-      <c r="D5">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103">
         <v>62</v>
       </c>
-      <c r="E5">
+      <c r="H5" s="103"/>
+      <c r="I5" s="103">
         <v>81</v>
       </c>
-      <c r="F5">
+      <c r="J5" s="103"/>
+      <c r="K5" s="103">
         <v>100</v>
       </c>
-      <c r="G5" s="125">
+      <c r="L5" s="103"/>
+      <c r="M5" s="125">
         <v>119</v>
       </c>
-      <c r="H5" s="125">
+      <c r="N5" s="125"/>
+      <c r="O5" s="125">
         <v>138</v>
       </c>
-      <c r="I5">
+      <c r="P5" s="125"/>
+      <c r="Q5" s="103">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="R5" s="103"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="103">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103">
         <v>44</v>
       </c>
-      <c r="D6">
+      <c r="F6" s="103"/>
+      <c r="G6" s="103">
         <v>63</v>
       </c>
-      <c r="E6">
+      <c r="H6" s="103"/>
+      <c r="I6" s="103">
         <v>82</v>
       </c>
-      <c r="F6">
+      <c r="J6" s="103"/>
+      <c r="K6" s="103">
         <v>101</v>
       </c>
-      <c r="G6">
+      <c r="L6" s="103"/>
+      <c r="M6" s="103">
         <v>120</v>
       </c>
-      <c r="H6">
+      <c r="N6" s="103"/>
+      <c r="O6" s="103">
         <v>139</v>
       </c>
-      <c r="I6">
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="R6" s="103"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="103">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103">
         <v>26</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="103"/>
+      <c r="E7" s="103">
         <v>45</v>
       </c>
-      <c r="D7">
+      <c r="F7" s="103"/>
+      <c r="G7" s="103">
         <v>64</v>
       </c>
-      <c r="E7">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103">
         <v>83</v>
       </c>
-      <c r="F7">
+      <c r="J7" s="103"/>
+      <c r="K7" s="103">
         <v>102</v>
       </c>
-      <c r="G7">
+      <c r="L7" s="103"/>
+      <c r="M7" s="103">
         <v>121</v>
       </c>
-      <c r="H7">
+      <c r="N7" s="103"/>
+      <c r="O7" s="103">
         <v>140</v>
       </c>
-      <c r="I7">
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103">
         <v>215</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R7" s="103"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="125">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="125"/>
+      <c r="C8" s="103">
         <v>27</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="103"/>
+      <c r="E8" s="103">
         <v>46</v>
       </c>
-      <c r="D8">
+      <c r="F8" s="103"/>
+      <c r="G8" s="103">
         <v>65</v>
       </c>
-      <c r="E8">
+      <c r="H8" s="103"/>
+      <c r="I8" s="103">
         <v>84</v>
       </c>
-      <c r="F8">
+      <c r="J8" s="103"/>
+      <c r="K8" s="103">
         <v>103</v>
       </c>
-      <c r="G8">
+      <c r="L8" s="103"/>
+      <c r="M8" s="103">
         <v>122</v>
       </c>
-      <c r="H8" s="125">
+      <c r="N8" s="103"/>
+      <c r="O8" s="125">
         <v>141</v>
       </c>
-      <c r="I8">
+      <c r="P8" s="125"/>
+      <c r="Q8" s="103">
         <v>252</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="R8" s="103"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="103">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103">
         <v>47</v>
       </c>
-      <c r="D9" s="125">
+      <c r="F9" s="103"/>
+      <c r="G9" s="125">
         <v>66</v>
       </c>
-      <c r="E9">
+      <c r="H9" s="125"/>
+      <c r="I9" s="103">
         <v>85</v>
       </c>
-      <c r="F9">
+      <c r="J9" s="103"/>
+      <c r="K9" s="103">
         <v>104</v>
       </c>
-      <c r="G9">
+      <c r="L9" s="103"/>
+      <c r="M9" s="103">
         <v>123</v>
       </c>
-      <c r="H9" s="125">
+      <c r="N9" s="103"/>
+      <c r="O9" s="125">
         <v>142</v>
       </c>
-      <c r="I9">
+      <c r="P9" s="125"/>
+      <c r="Q9" s="103">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="R9" s="103"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="103">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103">
         <v>48</v>
       </c>
-      <c r="D10" s="125">
+      <c r="F10" s="103"/>
+      <c r="G10" s="125">
         <v>67</v>
       </c>
-      <c r="E10">
+      <c r="H10" s="125"/>
+      <c r="I10" s="103">
         <v>86</v>
       </c>
-      <c r="F10">
+      <c r="J10" s="103"/>
+      <c r="K10" s="103">
         <v>105</v>
       </c>
-      <c r="G10" s="125">
+      <c r="L10" s="103"/>
+      <c r="M10" s="125">
         <v>124</v>
       </c>
-      <c r="H10" s="125">
+      <c r="N10" s="125"/>
+      <c r="O10" s="125">
         <v>143</v>
       </c>
-      <c r="I10">
+      <c r="P10" s="125"/>
+      <c r="Q10" s="103">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="103">
         <v>11</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="103"/>
+      <c r="C11" s="125">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="125"/>
+      <c r="E11" s="103">
         <v>49</v>
       </c>
-      <c r="D11" s="125">
+      <c r="F11" s="103"/>
+      <c r="G11" s="125">
         <v>68</v>
       </c>
-      <c r="E11">
+      <c r="H11" s="125"/>
+      <c r="I11" s="103">
         <v>87</v>
       </c>
-      <c r="F11">
+      <c r="J11" s="103"/>
+      <c r="K11" s="103">
         <v>106</v>
       </c>
-      <c r="G11" s="125">
+      <c r="L11" s="103"/>
+      <c r="M11" s="125">
         <v>125</v>
       </c>
-      <c r="H11">
+      <c r="N11" s="125"/>
+      <c r="O11" s="103">
         <v>144</v>
       </c>
-      <c r="I11">
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103">
         <v>337</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R11" s="103"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="125">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="125"/>
+      <c r="C12" s="103">
         <v>31</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103">
         <v>50</v>
       </c>
-      <c r="D12">
+      <c r="F12" s="103"/>
+      <c r="G12" s="103">
         <v>69</v>
       </c>
-      <c r="E12" s="125">
+      <c r="H12" s="103"/>
+      <c r="I12" s="125">
         <v>88</v>
       </c>
-      <c r="F12" s="125">
+      <c r="J12" s="125"/>
+      <c r="K12" s="125">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="L12" s="125"/>
+      <c r="M12" s="103">
         <v>126</v>
       </c>
-      <c r="H12">
+      <c r="N12" s="103"/>
+      <c r="O12" s="103">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="103">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103">
         <v>32</v>
       </c>
-      <c r="C13" s="125">
+      <c r="D13" s="103"/>
+      <c r="E13" s="125">
         <v>51</v>
       </c>
-      <c r="D13">
+      <c r="F13" s="125"/>
+      <c r="G13" s="103">
         <v>70</v>
       </c>
-      <c r="E13" s="125">
+      <c r="H13" s="103"/>
+      <c r="I13" s="125">
         <v>89</v>
       </c>
-      <c r="F13" s="125">
+      <c r="J13" s="125"/>
+      <c r="K13" s="125">
         <v>108</v>
       </c>
-      <c r="G13">
+      <c r="L13" s="125"/>
+      <c r="M13" s="103">
         <v>127</v>
       </c>
-      <c r="H13" s="125">
+      <c r="N13" s="103"/>
+      <c r="O13" s="125">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P13" s="125"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="125">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="125"/>
+      <c r="C14" s="103">
         <v>33</v>
       </c>
-      <c r="C14" s="125">
+      <c r="D14" s="103"/>
+      <c r="E14" s="125">
         <v>52</v>
       </c>
-      <c r="D14">
+      <c r="F14" s="125"/>
+      <c r="G14" s="103">
         <v>71</v>
       </c>
-      <c r="E14">
+      <c r="H14" s="103"/>
+      <c r="I14" s="103">
         <v>90</v>
       </c>
-      <c r="F14">
+      <c r="J14" s="103"/>
+      <c r="K14" s="103">
         <v>109</v>
       </c>
-      <c r="G14" s="125">
+      <c r="L14" s="103"/>
+      <c r="M14" s="125">
         <v>128</v>
       </c>
-      <c r="H14" s="125">
+      <c r="N14" s="125"/>
+      <c r="O14" s="125">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="P14" s="125"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="103">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103">
         <v>34</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="103"/>
+      <c r="E15" s="103">
         <v>53</v>
       </c>
-      <c r="D15">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103">
         <v>72</v>
       </c>
-      <c r="E15">
+      <c r="H15" s="103"/>
+      <c r="I15" s="103">
         <v>91</v>
       </c>
-      <c r="F15">
+      <c r="J15" s="103"/>
+      <c r="K15" s="103">
         <v>110</v>
       </c>
-      <c r="G15" s="125">
+      <c r="L15" s="103"/>
+      <c r="M15" s="125">
         <v>129</v>
       </c>
-      <c r="H15" s="125">
+      <c r="N15" s="125"/>
+      <c r="O15" s="125">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="P15" s="125"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="103">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="103"/>
+      <c r="C16" s="103">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="103"/>
+      <c r="E16" s="103">
         <v>54</v>
       </c>
-      <c r="D16">
+      <c r="F16" s="103"/>
+      <c r="G16" s="103">
         <v>73</v>
       </c>
-      <c r="E16">
+      <c r="H16" s="103"/>
+      <c r="I16" s="103">
         <v>92</v>
       </c>
-      <c r="F16">
+      <c r="J16" s="103"/>
+      <c r="K16" s="103">
         <v>111</v>
       </c>
-      <c r="G16" s="125">
+      <c r="L16" s="103"/>
+      <c r="M16" s="125">
         <v>130</v>
       </c>
-      <c r="H16" s="125">
+      <c r="N16" s="125"/>
+      <c r="O16" s="125">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="P16" s="125"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="103">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103">
         <v>36</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="103"/>
+      <c r="E17" s="103">
         <v>55</v>
       </c>
-      <c r="D17">
+      <c r="F17" s="103"/>
+      <c r="G17" s="103">
         <v>74</v>
       </c>
-      <c r="E17">
+      <c r="H17" s="103"/>
+      <c r="I17" s="103">
         <v>93</v>
       </c>
-      <c r="F17">
+      <c r="J17" s="103"/>
+      <c r="K17" s="103">
         <v>112</v>
       </c>
-      <c r="G17" s="125">
+      <c r="L17" s="103"/>
+      <c r="M17" s="125">
         <v>131</v>
       </c>
-      <c r="H17" s="125">
+      <c r="N17" s="125"/>
+      <c r="O17" s="125">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P17" s="125"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="125">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="125"/>
+      <c r="C18" s="103">
         <v>37</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="103"/>
+      <c r="E18" s="103">
         <v>56</v>
       </c>
-      <c r="D18">
+      <c r="F18" s="103"/>
+      <c r="G18" s="103">
         <v>75</v>
       </c>
-      <c r="E18">
+      <c r="H18" s="103"/>
+      <c r="I18" s="103">
         <v>94</v>
       </c>
-      <c r="F18">
+      <c r="J18" s="103"/>
+      <c r="K18" s="103">
         <v>113</v>
       </c>
-      <c r="G18" s="125">
+      <c r="L18" s="103"/>
+      <c r="M18" s="125">
         <v>132</v>
       </c>
-      <c r="H18" s="125">
+      <c r="N18" s="125"/>
+      <c r="O18" s="125">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="P18" s="125"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="103">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="103"/>
+      <c r="C19" s="103">
         <v>38</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103">
         <v>57</v>
       </c>
-      <c r="D19">
+      <c r="F19" s="103"/>
+      <c r="G19" s="103">
         <v>76</v>
       </c>
-      <c r="E19">
+      <c r="H19" s="103"/>
+      <c r="I19" s="103">
         <v>95</v>
       </c>
-      <c r="F19">
+      <c r="J19" s="103"/>
+      <c r="K19" s="103">
         <v>114</v>
       </c>
-      <c r="G19">
+      <c r="L19" s="103"/>
+      <c r="M19" s="103">
         <v>133</v>
       </c>
-      <c r="H19" s="125">
+      <c r="N19" s="103"/>
+      <c r="O19" s="125">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="P19" s="125"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="103">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103">
         <v>39</v>
       </c>
-      <c r="C20" s="125">
+      <c r="D20" s="103"/>
+      <c r="E20" s="125">
         <v>58</v>
       </c>
-      <c r="D20">
+      <c r="F20" s="125"/>
+      <c r="G20" s="103">
         <v>77</v>
       </c>
-      <c r="E20">
+      <c r="H20" s="103"/>
+      <c r="I20" s="103">
         <v>96</v>
       </c>
-      <c r="F20" s="125">
+      <c r="J20" s="103"/>
+      <c r="K20" s="125">
         <v>115</v>
       </c>
-      <c r="G20" s="125">
+      <c r="L20" s="125"/>
+      <c r="M20" s="125">
         <v>134</v>
       </c>
-      <c r="H20">
+      <c r="N20" s="125"/>
+      <c r="O20" s="103">
         <v>152</v>
       </c>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
